--- a/data/period_3.xlsx
+++ b/data/period_3.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>plot_num</t>
+    <t>event id</t>
   </si>
   <si>
     <t>start index</t>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>urine volume</t>
+  </si>
+  <si>
+    <t>total volume</t>
   </si>
   <si>
     <t>duration</t>
@@ -450,13 +453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,22 +487,25 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3388</v>
+        <v>2580</v>
       </c>
       <c r="E2">
-        <v>3404</v>
+        <v>2596</v>
       </c>
       <c r="F2" s="2">
         <v>44424.43688657408</v>
@@ -514,24 +520,27 @@
         <v>0.09299999999999997</v>
       </c>
       <c r="J2">
+        <v>0.6650000000000003</v>
+      </c>
+      <c r="K2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5205</v>
+        <v>4397</v>
       </c>
       <c r="E3">
-        <v>5420</v>
+        <v>4612</v>
       </c>
       <c r="F3" s="2">
         <v>44424.45791666667</v>
@@ -546,24 +555,27 @@
         <v>0.8130000000000007</v>
       </c>
       <c r="J3">
+        <v>7.170999999999998</v>
+      </c>
+      <c r="K3">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7603</v>
+        <v>6795</v>
       </c>
       <c r="E4">
-        <v>7804</v>
+        <v>6996</v>
       </c>
       <c r="F4" s="2">
         <v>44424.48567129629</v>
@@ -578,24 +590,27 @@
         <v>0.9099999999999948</v>
       </c>
       <c r="J4">
+        <v>6.899999999999971</v>
+      </c>
+      <c r="K4">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>9228</v>
+        <v>8420</v>
       </c>
       <c r="E5">
-        <v>9375</v>
+        <v>8567</v>
       </c>
       <c r="F5" s="2">
         <v>44424.50447916667</v>
@@ -610,24 +625,27 @@
         <v>0.4140000000000015</v>
       </c>
       <c r="J5">
+        <v>6.916000000000007</v>
+      </c>
+      <c r="K5">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>11493</v>
+        <v>10685</v>
       </c>
       <c r="E6">
-        <v>11551</v>
+        <v>10743</v>
       </c>
       <c r="F6" s="2">
         <v>44424.53069444445</v>
@@ -642,24 +660,27 @@
         <v>0.1599999999999984</v>
       </c>
       <c r="J6">
+        <v>0.6280000000000054</v>
+      </c>
+      <c r="K6">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>16536</v>
+        <v>15728</v>
       </c>
       <c r="E7">
-        <v>16619</v>
+        <v>15811</v>
       </c>
       <c r="F7" s="2">
         <v>44424.5890625</v>
@@ -674,24 +695,27 @@
         <v>0.1970000000000005</v>
       </c>
       <c r="J7">
+        <v>1.65500000000001</v>
+      </c>
+      <c r="K7">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>16991</v>
+        <v>16183</v>
       </c>
       <c r="E8">
-        <v>17013</v>
+        <v>16205</v>
       </c>
       <c r="F8" s="2">
         <v>44424.5943287037</v>
@@ -706,24 +730,27 @@
         <v>0.115000000000002</v>
       </c>
       <c r="J8">
+        <v>0.5909999999999975</v>
+      </c>
+      <c r="K8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>19410</v>
+        <v>18602</v>
       </c>
       <c r="E9">
-        <v>19474</v>
+        <v>18666</v>
       </c>
       <c r="F9" s="2">
         <v>44424.62232638889</v>
@@ -738,24 +765,27 @@
         <v>0.2929999999999993</v>
       </c>
       <c r="J9">
+        <v>6.724999999999998</v>
+      </c>
+      <c r="K9">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>20134</v>
+        <v>19326</v>
       </c>
       <c r="E10">
-        <v>20170</v>
+        <v>19362</v>
       </c>
       <c r="F10" s="2">
         <v>44424.63070601852</v>
@@ -770,24 +800,27 @@
         <v>0.08499999999999952</v>
       </c>
       <c r="J10">
+        <v>0.3970000000000149</v>
+      </c>
+      <c r="K10">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>21272</v>
+        <v>20464</v>
       </c>
       <c r="E11">
-        <v>21300</v>
+        <v>20492</v>
       </c>
       <c r="F11" s="2">
         <v>44424.64387731482</v>
@@ -802,24 +835,27 @@
         <v>0.05400000000000471</v>
       </c>
       <c r="J11">
+        <v>0.4959999999999907</v>
+      </c>
+      <c r="K11">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>23966</v>
+        <v>23158</v>
       </c>
       <c r="E12">
-        <v>24080</v>
+        <v>23272</v>
       </c>
       <c r="F12" s="2">
         <v>44424.67505787037</v>
@@ -834,24 +870,27 @@
         <v>0.1990000000000043</v>
       </c>
       <c r="J12">
+        <v>5.567000000000024</v>
+      </c>
+      <c r="K12">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>26572</v>
+        <v>25764</v>
       </c>
       <c r="E13">
-        <v>26649</v>
+        <v>25841</v>
       </c>
       <c r="F13" s="2">
         <v>44424.70521990741</v>
@@ -866,24 +905,27 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="J13">
+        <v>1.49199999999999</v>
+      </c>
+      <c r="K13">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>26756</v>
+        <v>25948</v>
       </c>
       <c r="E14">
-        <v>26844</v>
+        <v>26036</v>
       </c>
       <c r="F14" s="2">
         <v>44424.70734953704</v>
@@ -898,24 +940,27 @@
         <v>0.1450000000000014</v>
       </c>
       <c r="J14">
+        <v>1.006999999999989</v>
+      </c>
+      <c r="K14">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>26925</v>
+        <v>26117</v>
       </c>
       <c r="E15">
-        <v>27105</v>
+        <v>26297</v>
       </c>
       <c r="F15" s="2">
         <v>44424.70930555555</v>
@@ -930,24 +975,27 @@
         <v>0.6110000000000015</v>
       </c>
       <c r="J15">
+        <v>6.236999999999942</v>
+      </c>
+      <c r="K15">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>27171</v>
+        <v>26363</v>
       </c>
       <c r="E16">
-        <v>27247</v>
+        <v>26439</v>
       </c>
       <c r="F16" s="2">
         <v>44424.71215277778</v>
@@ -962,24 +1010,27 @@
         <v>0.4949999999999992</v>
       </c>
       <c r="J16">
+        <v>5.319000000000011</v>
+      </c>
+      <c r="K16">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>27370</v>
+        <v>26562</v>
       </c>
       <c r="E17">
-        <v>27425</v>
+        <v>26617</v>
       </c>
       <c r="F17" s="2">
         <v>44424.71445601852</v>
@@ -994,24 +1045,27 @@
         <v>0.3159999999999936</v>
       </c>
       <c r="J17">
+        <v>4.262000000000013</v>
+      </c>
+      <c r="K17">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>27564</v>
+        <v>26756</v>
       </c>
       <c r="E18">
-        <v>27580</v>
+        <v>26772</v>
       </c>
       <c r="F18" s="2">
         <v>44424.71670138889</v>
@@ -1026,24 +1080,27 @@
         <v>0.05699999999999772</v>
       </c>
       <c r="J18">
+        <v>1.720999999999942</v>
+      </c>
+      <c r="K18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>27685</v>
+        <v>26877</v>
       </c>
       <c r="E19">
-        <v>27736</v>
+        <v>26928</v>
       </c>
       <c r="F19" s="2">
         <v>44424.71810185185</v>
@@ -1058,15 +1115,18 @@
         <v>0.2439999999999971</v>
       </c>
       <c r="J19">
+        <v>3.032000000000008</v>
+      </c>
+      <c r="K19">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1090,15 +1150,18 @@
         <v>0.4410000000000007</v>
       </c>
       <c r="J20">
+        <v>6.465000000000006</v>
+      </c>
+      <c r="K20">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1122,15 +1185,18 @@
         <v>0.7150000000000009</v>
       </c>
       <c r="J21">
+        <v>6.465000000000001</v>
+      </c>
+      <c r="K21">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1154,15 +1220,18 @@
         <v>0.5230000000000008</v>
       </c>
       <c r="J22">
+        <v>6.456999999999991</v>
+      </c>
+      <c r="K22">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1186,15 +1255,18 @@
         <v>1.208</v>
       </c>
       <c r="J23">
+        <v>9.012000000000002</v>
+      </c>
+      <c r="K23">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1218,15 +1290,18 @@
         <v>0.6480000000000015</v>
       </c>
       <c r="J24">
+        <v>5.810000000000004</v>
+      </c>
+      <c r="K24">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1250,15 +1325,18 @@
         <v>0.7320000000000029</v>
       </c>
       <c r="J25">
+        <v>4.575999999999997</v>
+      </c>
+      <c r="K25">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1282,15 +1360,18 @@
         <v>0.7220000000000102</v>
       </c>
       <c r="J26">
+        <v>7.324000000000021</v>
+      </c>
+      <c r="K26">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -1314,15 +1395,18 @@
         <v>0.3419999999999943</v>
       </c>
       <c r="J27">
+        <v>7.359999999999974</v>
+      </c>
+      <c r="K27">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -1346,15 +1430,18 @@
         <v>0.1829999999999874</v>
       </c>
       <c r="J28">
+        <v>1.19500000000003</v>
+      </c>
+      <c r="K28">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -1378,15 +1465,18 @@
         <v>1.400000000000007</v>
       </c>
       <c r="J29">
+        <v>16.72399999999984</v>
+      </c>
+      <c r="K29">
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -1410,15 +1500,18 @@
         <v>0.3209999999999926</v>
       </c>
       <c r="J30">
+        <v>5.236999999999933</v>
+      </c>
+      <c r="K30">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -1442,24 +1535,27 @@
         <v>1.274999999999991</v>
       </c>
       <c r="J31">
+        <v>9.152999999999892</v>
+      </c>
+      <c r="K31">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1571</v>
+        <v>383</v>
       </c>
       <c r="E32">
-        <v>1644</v>
+        <v>456</v>
       </c>
       <c r="F32" s="2">
         <v>44426.41451388889</v>
@@ -1474,24 +1570,27 @@
         <v>0.212</v>
       </c>
       <c r="J32">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="K32">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2418</v>
+        <v>1230</v>
       </c>
       <c r="E33">
-        <v>2732</v>
+        <v>1544</v>
       </c>
       <c r="F33" s="2">
         <v>44426.42431712963</v>
@@ -1506,24 +1605,27 @@
         <v>0.7779999999999994</v>
       </c>
       <c r="J33">
+        <v>6.660000000000007</v>
+      </c>
+      <c r="K33">
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>4234</v>
+        <v>3046</v>
       </c>
       <c r="E34">
-        <v>4321</v>
+        <v>3133</v>
       </c>
       <c r="F34" s="2">
         <v>44426.44533564815</v>
@@ -1538,24 +1640,27 @@
         <v>0.3249999999999993</v>
       </c>
       <c r="J34">
+        <v>6.081000000000007</v>
+      </c>
+      <c r="K34">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35">
-        <v>4920</v>
+        <v>3732</v>
       </c>
       <c r="E35">
-        <v>4976</v>
+        <v>3788</v>
       </c>
       <c r="F35" s="2">
         <v>44426.45327546296</v>
@@ -1570,24 +1675,27 @@
         <v>0.6420000000000021</v>
       </c>
       <c r="J35">
+        <v>5.152000000000007</v>
+      </c>
+      <c r="K35">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36">
-        <v>7375</v>
+        <v>6187</v>
       </c>
       <c r="E36">
-        <v>7437</v>
+        <v>6249</v>
       </c>
       <c r="F36" s="2">
         <v>44426.48168981481</v>
@@ -1602,24 +1710,27 @@
         <v>0.2569999999999988</v>
       </c>
       <c r="J36">
+        <v>3.51699999999999</v>
+      </c>
+      <c r="K36">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37">
-        <v>10794</v>
+        <v>9606</v>
       </c>
       <c r="E37">
-        <v>10836</v>
+        <v>9648</v>
       </c>
       <c r="F37" s="2">
         <v>44426.52126157407</v>
@@ -1634,24 +1745,27 @@
         <v>0.3709999999999987</v>
       </c>
       <c r="J37">
+        <v>4.220999999999986</v>
+      </c>
+      <c r="K37">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
       <c r="D38">
-        <v>11474</v>
+        <v>10286</v>
       </c>
       <c r="E38">
-        <v>11506</v>
+        <v>10318</v>
       </c>
       <c r="F38" s="2">
         <v>44426.52913194444</v>
@@ -1666,24 +1780,27 @@
         <v>0.2690000000000019</v>
       </c>
       <c r="J38">
+        <v>1.769000000000002</v>
+      </c>
+      <c r="K38">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>7</v>
       </c>
       <c r="D39">
-        <v>11649</v>
+        <v>10461</v>
       </c>
       <c r="E39">
-        <v>11701</v>
+        <v>10513</v>
       </c>
       <c r="F39" s="2">
         <v>44426.53115740741</v>
@@ -1698,24 +1815,27 @@
         <v>0.1170000000000067</v>
       </c>
       <c r="J39">
+        <v>0.540999999999999</v>
+      </c>
+      <c r="K39">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>13795</v>
+        <v>12607</v>
       </c>
       <c r="E40">
-        <v>13857</v>
+        <v>12669</v>
       </c>
       <c r="F40" s="2">
         <v>44426.55599537037</v>
@@ -1730,24 +1850,27 @@
         <v>0.2489999999999966</v>
       </c>
       <c r="J40">
+        <v>3.646999999999939</v>
+      </c>
+      <c r="K40">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
       <c r="D41">
-        <v>13960</v>
+        <v>12772</v>
       </c>
       <c r="E41">
-        <v>14002</v>
+        <v>12814</v>
       </c>
       <c r="F41" s="2">
         <v>44426.5579050926</v>
@@ -1762,24 +1885,27 @@
         <v>0.356000000000003</v>
       </c>
       <c r="J41">
+        <v>3.250000000000016</v>
+      </c>
+      <c r="K41">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="D42">
-        <v>19686</v>
+        <v>18498</v>
       </c>
       <c r="E42">
-        <v>19755</v>
+        <v>18567</v>
       </c>
       <c r="F42" s="2">
         <v>44426.62417824074</v>
@@ -1794,24 +1920,27 @@
         <v>0.198000000000004</v>
       </c>
       <c r="J42">
+        <v>2.529999999999976</v>
+      </c>
+      <c r="K42">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>11</v>
       </c>
       <c r="D43">
-        <v>20262</v>
+        <v>19074</v>
       </c>
       <c r="E43">
-        <v>20338</v>
+        <v>19150</v>
       </c>
       <c r="F43" s="2">
         <v>44426.63084490741</v>
@@ -1826,24 +1955,27 @@
         <v>0.2299999999999995</v>
       </c>
       <c r="J43">
+        <v>7.279999999999968</v>
+      </c>
+      <c r="K43">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>26467</v>
+        <v>25279</v>
       </c>
       <c r="E44">
-        <v>26552</v>
+        <v>25364</v>
       </c>
       <c r="F44" s="2">
         <v>44426.70266203704</v>
@@ -1858,24 +1990,27 @@
         <v>0.1889999999999947</v>
       </c>
       <c r="J44">
+        <v>2.692999999999914</v>
+      </c>
+      <c r="K44">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>13</v>
       </c>
       <c r="D45">
-        <v>28247</v>
+        <v>27059</v>
       </c>
       <c r="E45">
-        <v>28281</v>
+        <v>27093</v>
       </c>
       <c r="F45" s="2">
         <v>44426.72326388889</v>
@@ -1890,15 +2025,18 @@
         <v>0.2159999999999984</v>
       </c>
       <c r="J45">
+        <v>4.339999999999937</v>
+      </c>
+      <c r="K45">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1922,15 +2060,18 @@
         <v>0.2139999999999994</v>
       </c>
       <c r="J46">
+        <v>1.873999999999998</v>
+      </c>
+      <c r="K46">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1954,15 +2095,18 @@
         <v>0.2600000000000002</v>
       </c>
       <c r="J47">
+        <v>2.391999999999999</v>
+      </c>
+      <c r="K47">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1986,15 +2130,18 @@
         <v>0.3719999999999999</v>
       </c>
       <c r="J48">
+        <v>4.654000000000002</v>
+      </c>
+      <c r="K48">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -2018,15 +2165,18 @@
         <v>0.1239999999999994</v>
       </c>
       <c r="J49">
+        <v>3.244000000000004</v>
+      </c>
+      <c r="K49">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -2050,15 +2200,18 @@
         <v>0.7990000000000006</v>
       </c>
       <c r="J50">
+        <v>8.672999999999986</v>
+      </c>
+      <c r="K50">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2082,15 +2235,18 @@
         <v>0.1090000000000013</v>
       </c>
       <c r="J51">
+        <v>0.3270000000000084</v>
+      </c>
+      <c r="K51">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -2114,15 +2270,18 @@
         <v>0.2350000000000048</v>
       </c>
       <c r="J52">
+        <v>3.595000000000001</v>
+      </c>
+      <c r="K52">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2146,15 +2305,18 @@
         <v>0.06499999999999997</v>
       </c>
       <c r="J53">
+        <v>0.3829999999999999</v>
+      </c>
+      <c r="K53">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2178,15 +2340,18 @@
         <v>0.6220000000000007</v>
       </c>
       <c r="J54">
+        <v>5.264000000000001</v>
+      </c>
+      <c r="K54">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2210,15 +2375,18 @@
         <v>0.4109999999999997</v>
       </c>
       <c r="J55">
+        <v>5.782999999999999</v>
+      </c>
+      <c r="K55">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2242,15 +2410,18 @@
         <v>0.6339999999999997</v>
       </c>
       <c r="J56">
+        <v>9.51400000000001</v>
+      </c>
+      <c r="K56">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -2274,15 +2445,18 @@
         <v>0.2300000000000013</v>
       </c>
       <c r="J57">
+        <v>4.622000000000008</v>
+      </c>
+      <c r="K57">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -2306,15 +2480,18 @@
         <v>0.5810000000000026</v>
       </c>
       <c r="J58">
+        <v>7.142999999999972</v>
+      </c>
+      <c r="K58">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -2338,15 +2515,18 @@
         <v>0.8699999999999961</v>
       </c>
       <c r="J59">
+        <v>11.22000000000001</v>
+      </c>
+      <c r="K59">
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -2370,15 +2550,18 @@
         <v>0.4100000000000064</v>
       </c>
       <c r="J60">
+        <v>4.708000000000051</v>
+      </c>
+      <c r="K60">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2402,15 +2585,18 @@
         <v>1.263</v>
       </c>
       <c r="J61">
+        <v>15.07499999999999</v>
+      </c>
+      <c r="K61">
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2434,15 +2620,18 @@
         <v>0.2780000000000034</v>
       </c>
       <c r="J62">
+        <v>1.151999999999999</v>
+      </c>
+      <c r="K62">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -2466,15 +2655,18 @@
         <v>0.2209999999999999</v>
       </c>
       <c r="J63">
+        <v>0.8329999999999858</v>
+      </c>
+      <c r="K63">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -2498,15 +2690,18 @@
         <v>0.5460000000000012</v>
       </c>
       <c r="J64">
+        <v>2.396000000000006</v>
+      </c>
+      <c r="K64">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -2530,15 +2725,18 @@
         <v>1.340999999999999</v>
       </c>
       <c r="J65">
+        <v>14.50299999999999</v>
+      </c>
+      <c r="K65">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -2562,15 +2760,18 @@
         <v>0.4590000000000023</v>
       </c>
       <c r="J66">
+        <v>4.526999999999929</v>
+      </c>
+      <c r="K66">
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -2594,15 +2795,18 @@
         <v>0.7790000000000044</v>
       </c>
       <c r="J67">
+        <v>4.496999999999958</v>
+      </c>
+      <c r="K67">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -2626,15 +2830,18 @@
         <v>0.4520000000000008</v>
       </c>
       <c r="J68">
+        <v>5.071999999999998</v>
+      </c>
+      <c r="K68">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -2658,15 +2865,18 @@
         <v>0.09799999999999898</v>
       </c>
       <c r="J69">
+        <v>0.9919999999999902</v>
+      </c>
+      <c r="K69">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2690,15 +2900,18 @@
         <v>0.4509999999999997</v>
       </c>
       <c r="J70">
+        <v>2.436999999999999</v>
+      </c>
+      <c r="K70">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2722,15 +2935,18 @@
         <v>0.1939999999999994</v>
       </c>
       <c r="J71">
+        <v>0.3559999999999993</v>
+      </c>
+      <c r="K71">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -2754,15 +2970,18 @@
         <v>0.1609999999999991</v>
       </c>
       <c r="J72">
+        <v>3.408999999999994</v>
+      </c>
+      <c r="K72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -2786,15 +3005,18 @@
         <v>0.4139999999999988</v>
       </c>
       <c r="J73">
+        <v>4.065999999999999</v>
+      </c>
+      <c r="K73">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -2818,15 +3040,18 @@
         <v>0.08700000000000019</v>
       </c>
       <c r="J74">
+        <v>1.074999999999998</v>
+      </c>
+      <c r="K74">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -2850,15 +3075,18 @@
         <v>0.2810000000000001</v>
       </c>
       <c r="J75">
+        <v>2.79900000000002</v>
+      </c>
+      <c r="K75">
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -2882,15 +3110,18 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="J76">
+        <v>2.07</v>
+      </c>
+      <c r="K76">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -2914,15 +3145,18 @@
         <v>0.6819999999999995</v>
       </c>
       <c r="J77">
+        <v>7.671999999999978</v>
+      </c>
+      <c r="K77">
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -2946,15 +3180,18 @@
         <v>0.2800000000000029</v>
       </c>
       <c r="J78">
+        <v>1.599999999999996</v>
+      </c>
+      <c r="K78">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -2978,15 +3215,18 @@
         <v>0.3400000000000021</v>
       </c>
       <c r="J79">
+        <v>3.502000000000012</v>
+      </c>
+      <c r="K79">
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -3010,15 +3250,18 @@
         <v>1.019999999999998</v>
       </c>
       <c r="J80">
+        <v>11.36799999999999</v>
+      </c>
+      <c r="K80">
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C81">
         <v>11</v>
@@ -3042,15 +3285,18 @@
         <v>0.4520000000000026</v>
       </c>
       <c r="J81">
+        <v>4.53400000000001</v>
+      </c>
+      <c r="K81">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -3074,15 +3320,18 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="J82">
+        <v>0.2220000000000155</v>
+      </c>
+      <c r="K82">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C83">
         <v>13</v>
@@ -3106,15 +3355,18 @@
         <v>0.4249999999999998</v>
       </c>
       <c r="J83">
+        <v>4.362999999999945</v>
+      </c>
+      <c r="K83">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>14</v>
@@ -3138,15 +3390,18 @@
         <v>0.08800000000000452</v>
       </c>
       <c r="J84">
+        <v>0.5759999999999756</v>
+      </c>
+      <c r="K84">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85">
         <v>15</v>
@@ -3170,15 +3425,18 @@
         <v>0.1039999999999974</v>
       </c>
       <c r="J85">
+        <v>2.191999999999984</v>
+      </c>
+      <c r="K85">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -3202,15 +3460,18 @@
         <v>0.3759999999999906</v>
       </c>
       <c r="J86">
+        <v>6.493999999999986</v>
+      </c>
+      <c r="K86">
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3234,15 +3495,18 @@
         <v>0.2030000000000001</v>
       </c>
       <c r="J87">
+        <v>0.6030000000000001</v>
+      </c>
+      <c r="K87">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3266,15 +3530,18 @@
         <v>0.8569999999999997</v>
       </c>
       <c r="J88">
+        <v>10.179</v>
+      </c>
+      <c r="K88">
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -3298,15 +3565,18 @@
         <v>0.1319999999999997</v>
       </c>
       <c r="J89">
+        <v>0.7500000000000036</v>
+      </c>
+      <c r="K89">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -3330,15 +3600,18 @@
         <v>0.2309999999999994</v>
       </c>
       <c r="J90">
+        <v>3.924999999999997</v>
+      </c>
+      <c r="K90">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -3362,15 +3635,18 @@
         <v>0.5890000000000004</v>
       </c>
       <c r="J91">
+        <v>5.748999999999999</v>
+      </c>
+      <c r="K91">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -3394,15 +3670,18 @@
         <v>0.1119999999999988</v>
       </c>
       <c r="J92">
+        <v>1.068000000000002</v>
+      </c>
+      <c r="K92">
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -3426,15 +3705,18 @@
         <v>0.9220000000000019</v>
       </c>
       <c r="J93">
+        <v>8.281999999999998</v>
+      </c>
+      <c r="K93">
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -3458,15 +3740,18 @@
         <v>0.1469999999999998</v>
       </c>
       <c r="J94">
+        <v>1.624999999999962</v>
+      </c>
+      <c r="K94">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>8</v>
@@ -3490,15 +3775,18 @@
         <v>0.2550000000000012</v>
       </c>
       <c r="J95">
+        <v>2.785000000000002</v>
+      </c>
+      <c r="K95">
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -3522,15 +3810,18 @@
         <v>1.107000000000001</v>
       </c>
       <c r="J96">
+        <v>3.946999999999969</v>
+      </c>
+      <c r="K96">
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C97">
         <v>10</v>
@@ -3554,15 +3845,18 @@
         <v>0.5819999999999972</v>
       </c>
       <c r="J97">
+        <v>7.63399999999999</v>
+      </c>
+      <c r="K97">
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:11">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>11</v>
@@ -3586,15 +3880,18 @@
         <v>0.7739999999999823</v>
       </c>
       <c r="J98">
+        <v>7.971999999999968</v>
+      </c>
+      <c r="K98">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:11">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -3618,15 +3915,18 @@
         <v>0.5429999999999904</v>
       </c>
       <c r="J99">
+        <v>5.30099999999995</v>
+      </c>
+      <c r="K99">
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:11">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C100">
         <v>13</v>
@@ -3650,15 +3950,18 @@
         <v>0.4949999999999974</v>
       </c>
       <c r="J100">
+        <v>6.700999999999894</v>
+      </c>
+      <c r="K100">
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C101">
         <v>14</v>
@@ -3682,15 +3985,18 @@
         <v>0.5599999999999925</v>
       </c>
       <c r="J101">
+        <v>6.141999999999936</v>
+      </c>
+      <c r="K101">
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102">
         <v>15</v>
@@ -3714,15 +4020,18 @@
         <v>0.4229999999999912</v>
       </c>
       <c r="J102">
+        <v>3.04499999999992</v>
+      </c>
+      <c r="K102">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:11">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3746,15 +4055,18 @@
         <v>0.1619999999999999</v>
       </c>
       <c r="J103">
+        <v>0.5379999999999997</v>
+      </c>
+      <c r="K103">
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3778,15 +4090,18 @@
         <v>0.2290000000000002</v>
       </c>
       <c r="J104">
+        <v>1.201</v>
+      </c>
+      <c r="K104">
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:11">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -3810,15 +4125,18 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="J105">
+        <v>10.05100000000001</v>
+      </c>
+      <c r="K105">
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -3842,15 +4160,18 @@
         <v>0.7580000000000009</v>
       </c>
       <c r="J106">
+        <v>6.611999999999972</v>
+      </c>
+      <c r="K106">
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:11">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -3874,15 +4195,18 @@
         <v>0.25</v>
       </c>
       <c r="J107">
+        <v>2.341999999999995</v>
+      </c>
+      <c r="K107">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:11">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -3906,15 +4230,18 @@
         <v>0.5699999999999958</v>
       </c>
       <c r="J108">
+        <v>5.373999999999969</v>
+      </c>
+      <c r="K108">
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:11">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C109">
         <v>6</v>
@@ -3938,15 +4265,18 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="J109">
+        <v>5.077999999999973</v>
+      </c>
+      <c r="K109">
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:11">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C110">
         <v>7</v>
@@ -3970,15 +4300,18 @@
         <v>0.7840000000000176</v>
       </c>
       <c r="J110">
+        <v>9.939999999999952</v>
+      </c>
+      <c r="K110">
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:11">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -4002,15 +4335,18 @@
         <v>0.5260000000000025</v>
       </c>
       <c r="J111">
+        <v>5.203999999999986</v>
+      </c>
+      <c r="K111">
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:11">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C112">
         <v>9</v>
@@ -4034,15 +4370,18 @@
         <v>0.3839999999999995</v>
       </c>
       <c r="J112">
+        <v>3.120000000000011</v>
+      </c>
+      <c r="K112">
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:11">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C113">
         <v>10</v>
@@ -4066,15 +4405,18 @@
         <v>0.4290000000000207</v>
       </c>
       <c r="J113">
+        <v>5.288999999999977</v>
+      </c>
+      <c r="K113">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:11">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4098,15 +4440,18 @@
         <v>0.3839999999999991</v>
       </c>
       <c r="J114">
+        <v>4.19</v>
+      </c>
+      <c r="K114">
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:11">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4130,15 +4475,18 @@
         <v>0.2219999999999994</v>
       </c>
       <c r="J115">
+        <v>3.267999999999995</v>
+      </c>
+      <c r="K115">
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:11">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -4162,15 +4510,18 @@
         <v>0.2799999999999996</v>
       </c>
       <c r="J116">
+        <v>2.894000000000005</v>
+      </c>
+      <c r="K116">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:11">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -4194,15 +4545,18 @@
         <v>0.7970000000000024</v>
       </c>
       <c r="J117">
+        <v>8.985000000000005</v>
+      </c>
+      <c r="K117">
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:11">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -4226,15 +4580,18 @@
         <v>0.4269999999999987</v>
       </c>
       <c r="J118">
+        <v>3.539000000000001</v>
+      </c>
+      <c r="K118">
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:11">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C119">
         <v>5</v>
@@ -4258,24 +4615,27 @@
         <v>0.3709999999999996</v>
       </c>
       <c r="J119">
+        <v>3.995000000000005</v>
+      </c>
+      <c r="K119">
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:11">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>7269</v>
+        <v>6843</v>
       </c>
       <c r="E120">
-        <v>7482</v>
+        <v>7056</v>
       </c>
       <c r="F120" s="2">
         <v>44413.51190972222</v>
@@ -4290,24 +4650,27 @@
         <v>1.032</v>
       </c>
       <c r="J120">
+        <v>4.419999999999998</v>
+      </c>
+      <c r="K120">
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:11">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>7544</v>
+        <v>7118</v>
       </c>
       <c r="E121">
-        <v>7601</v>
+        <v>7175</v>
       </c>
       <c r="F121" s="2">
         <v>44413.51509259259</v>
@@ -4322,24 +4685,27 @@
         <v>0.4259999999999997</v>
       </c>
       <c r="J121">
+        <v>4.110000000000001</v>
+      </c>
+      <c r="K121">
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:11">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>9464</v>
+        <v>9038</v>
       </c>
       <c r="E122">
-        <v>9542</v>
+        <v>9116</v>
       </c>
       <c r="F122" s="2">
         <v>44413.53731481481</v>
@@ -4354,24 +4720,27 @@
         <v>0.1729999999999996</v>
       </c>
       <c r="J122">
+        <v>0.9349999999999938</v>
+      </c>
+      <c r="K122">
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:11">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123">
-        <v>9829</v>
+        <v>9403</v>
       </c>
       <c r="E123">
-        <v>10103</v>
+        <v>9677</v>
       </c>
       <c r="F123" s="2">
         <v>44413.54153935185</v>
@@ -4386,24 +4755,27 @@
         <v>1.036999999999998</v>
       </c>
       <c r="J123">
+        <v>11.69699999999998</v>
+      </c>
+      <c r="K123">
         <v>274</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:11">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C124">
         <v>4</v>
       </c>
       <c r="D124">
-        <v>14224</v>
+        <v>13798</v>
       </c>
       <c r="E124">
-        <v>14350</v>
+        <v>13924</v>
       </c>
       <c r="F124" s="2">
         <v>44413.59240740741</v>
@@ -4418,24 +4790,27 @@
         <v>0.4719999999999946</v>
       </c>
       <c r="J124">
+        <v>4.893999999999988</v>
+      </c>
+      <c r="K124">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:11">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C125">
         <v>5</v>
       </c>
       <c r="D125">
-        <v>16479</v>
+        <v>16053</v>
       </c>
       <c r="E125">
-        <v>16668</v>
+        <v>16242</v>
       </c>
       <c r="F125" s="2">
         <v>44413.61850694445</v>
@@ -4450,24 +4825,27 @@
         <v>0.9530000000000012</v>
       </c>
       <c r="J125">
+        <v>9.870999999999894</v>
+      </c>
+      <c r="K125">
         <v>189</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:11">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C126">
         <v>6</v>
       </c>
       <c r="D126">
-        <v>18945</v>
+        <v>18519</v>
       </c>
       <c r="E126">
-        <v>19009</v>
+        <v>18583</v>
       </c>
       <c r="F126" s="2">
         <v>44413.64704861111</v>
@@ -4482,24 +4860,27 @@
         <v>0.4980000000000002</v>
       </c>
       <c r="J126">
+        <v>3.445999999999979</v>
+      </c>
+      <c r="K126">
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:11">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C127">
         <v>7</v>
       </c>
       <c r="D127">
-        <v>23712</v>
+        <v>23286</v>
       </c>
       <c r="E127">
-        <v>23757</v>
+        <v>23331</v>
       </c>
       <c r="F127" s="2">
         <v>44413.70222222222</v>
@@ -4514,24 +4895,27 @@
         <v>0.3300000000000027</v>
       </c>
       <c r="J127">
+        <v>3.266000000000031</v>
+      </c>
+      <c r="K127">
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:11">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C128">
         <v>8</v>
       </c>
       <c r="D128">
-        <v>23939</v>
+        <v>23513</v>
       </c>
       <c r="E128">
-        <v>23996</v>
+        <v>23570</v>
       </c>
       <c r="F128" s="2">
         <v>44413.70484953704</v>
@@ -4546,24 +4930,27 @@
         <v>0.5209999999999964</v>
       </c>
       <c r="J128">
+        <v>3.562999999999991</v>
+      </c>
+      <c r="K128">
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:11">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C129">
         <v>9</v>
       </c>
       <c r="D129">
-        <v>26156</v>
+        <v>25730</v>
       </c>
       <c r="E129">
-        <v>26210</v>
+        <v>25784</v>
       </c>
       <c r="F129" s="2">
         <v>44413.73050925926</v>
@@ -4578,24 +4965,27 @@
         <v>0.3450000000000042</v>
       </c>
       <c r="J129">
+        <v>4.403000000000004</v>
+      </c>
+      <c r="K129">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:11">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>7238</v>
+        <v>6649</v>
       </c>
       <c r="E130">
-        <v>7336</v>
+        <v>6747</v>
       </c>
       <c r="F130" s="2">
         <v>44420.51274305556</v>
@@ -4610,24 +5000,27 @@
         <v>0.2620000000000003</v>
       </c>
       <c r="J130">
+        <v>7.361999999999994</v>
+      </c>
+      <c r="K130">
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:11">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>7960</v>
+        <v>7371</v>
       </c>
       <c r="E131">
-        <v>7990</v>
+        <v>7401</v>
       </c>
       <c r="F131" s="2">
         <v>44420.52109953704</v>
@@ -4642,24 +5035,27 @@
         <v>0.1280000000000003</v>
       </c>
       <c r="J131">
+        <v>0.926000000000003</v>
+      </c>
+      <c r="K131">
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:11">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>9984</v>
+        <v>9395</v>
       </c>
       <c r="E132">
-        <v>10039</v>
+        <v>9450</v>
       </c>
       <c r="F132" s="2">
         <v>44420.54452546296</v>
@@ -4674,24 +5070,27 @@
         <v>0.1669999999999998</v>
       </c>
       <c r="J132">
+        <v>4.42500000000001</v>
+      </c>
+      <c r="K132">
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:11">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C133">
         <v>3</v>
       </c>
       <c r="D133">
-        <v>10193</v>
+        <v>9604</v>
       </c>
       <c r="E133">
-        <v>10338</v>
+        <v>9749</v>
       </c>
       <c r="F133" s="2">
         <v>44420.54694444445</v>
@@ -4706,24 +5105,27 @@
         <v>0.5399999999999999</v>
       </c>
       <c r="J133">
+        <v>5.783999999999986</v>
+      </c>
+      <c r="K133">
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:11">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>4</v>
       </c>
       <c r="D134">
-        <v>12388</v>
+        <v>11799</v>
       </c>
       <c r="E134">
-        <v>12453</v>
+        <v>11864</v>
       </c>
       <c r="F134" s="2">
         <v>44420.57234953704</v>
@@ -4738,24 +5140,27 @@
         <v>0.1649999999999987</v>
       </c>
       <c r="J134">
+        <v>2.502999999999993</v>
+      </c>
+      <c r="K134">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:11">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135">
         <v>5</v>
       </c>
       <c r="D135">
-        <v>14283</v>
+        <v>13694</v>
       </c>
       <c r="E135">
-        <v>14326</v>
+        <v>13737</v>
       </c>
       <c r="F135" s="2">
         <v>44420.59428240741</v>
@@ -4770,24 +5175,27 @@
         <v>0.3900000000000006</v>
       </c>
       <c r="J135">
+        <v>3.010000000000009</v>
+      </c>
+      <c r="K135">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:11">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C136">
         <v>6</v>
       </c>
       <c r="D136">
-        <v>14387</v>
+        <v>13798</v>
       </c>
       <c r="E136">
-        <v>14402</v>
+        <v>13813</v>
       </c>
       <c r="F136" s="2">
         <v>44420.59548611111</v>
@@ -4802,24 +5210,27 @@
         <v>0.04400000000000182</v>
       </c>
       <c r="J136">
+        <v>3.009999999999989</v>
+      </c>
+      <c r="K136">
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:11">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C137">
         <v>7</v>
       </c>
       <c r="D137">
-        <v>17257</v>
+        <v>16668</v>
       </c>
       <c r="E137">
-        <v>17323</v>
+        <v>16734</v>
       </c>
       <c r="F137" s="2">
         <v>44420.6287037037</v>
@@ -4834,24 +5245,27 @@
         <v>0.2459999999999982</v>
       </c>
       <c r="J137">
+        <v>4.444000000000003</v>
+      </c>
+      <c r="K137">
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:11">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C138">
         <v>8</v>
       </c>
       <c r="D138">
-        <v>20575</v>
+        <v>19986</v>
       </c>
       <c r="E138">
-        <v>20631</v>
+        <v>20042</v>
       </c>
       <c r="F138" s="2">
         <v>44420.66710648148</v>
@@ -4866,24 +5280,27 @@
         <v>0.3209999999999984</v>
       </c>
       <c r="J138">
+        <v>4.062999999999995</v>
+      </c>
+      <c r="K138">
         <v>56</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:11">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C139">
         <v>9</v>
       </c>
       <c r="D139">
-        <v>24239</v>
+        <v>23650</v>
       </c>
       <c r="E139">
-        <v>24294</v>
+        <v>23705</v>
       </c>
       <c r="F139" s="2">
         <v>44420.70951388889</v>
@@ -4898,15 +5315,18 @@
         <v>0.3090000000000002</v>
       </c>
       <c r="J139">
+        <v>4.588999999999973</v>
+      </c>
+      <c r="K139">
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:11">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4930,15 +5350,18 @@
         <v>0.6440000000000012</v>
       </c>
       <c r="J140">
+        <v>8.124000000000009</v>
+      </c>
+      <c r="K140">
         <v>220</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:11">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4962,15 +5385,18 @@
         <v>0.4720000000000013</v>
       </c>
       <c r="J141">
+        <v>7.079999999999997</v>
+      </c>
+      <c r="K141">
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:11">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -4994,15 +5420,18 @@
         <v>0.3440000000000001</v>
       </c>
       <c r="J142">
+        <v>3.678000000000009</v>
+      </c>
+      <c r="K142">
         <v>88</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:11">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -5026,15 +5455,18 @@
         <v>0.3729999999999996</v>
       </c>
       <c r="J143">
+        <v>7.287000000000004</v>
+      </c>
+      <c r="K143">
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:11">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -5058,15 +5490,18 @@
         <v>0.2249999999999989</v>
       </c>
       <c r="J144">
+        <v>1.444999999999999</v>
+      </c>
+      <c r="K144">
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:11">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5090,15 +5525,18 @@
         <v>0.1669999999999998</v>
       </c>
       <c r="J145">
+        <v>1.233000000000002</v>
+      </c>
+      <c r="K145">
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:11">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -5122,15 +5560,18 @@
         <v>0.1359999999999998</v>
       </c>
       <c r="J146">
+        <v>1.139999999999999</v>
+      </c>
+      <c r="K146">
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:11">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -5154,15 +5595,18 @@
         <v>0.07599999999999985</v>
       </c>
       <c r="J147">
+        <v>0.2940000000000034</v>
+      </c>
+      <c r="K147">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:11">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -5186,15 +5630,18 @@
         <v>0.220999999999999</v>
       </c>
       <c r="J148">
+        <v>2.375000000000006</v>
+      </c>
+      <c r="K148">
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:11">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C149">
         <v>5</v>
@@ -5218,24 +5665,27 @@
         <v>0.4669999999999976</v>
       </c>
       <c r="J149">
+        <v>8.964999999999995</v>
+      </c>
+      <c r="K149">
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:11">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>2968</v>
+        <v>2080</v>
       </c>
       <c r="E150">
-        <v>2996</v>
+        <v>2108</v>
       </c>
       <c r="F150" s="2">
         <v>44417.45302083333</v>
@@ -5250,24 +5700,27 @@
         <v>0.1629999999999997</v>
       </c>
       <c r="J150">
+        <v>0.4389999999999995</v>
+      </c>
+      <c r="K150">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:11">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>3069</v>
+        <v>2181</v>
       </c>
       <c r="E151">
-        <v>3172</v>
+        <v>2284</v>
       </c>
       <c r="F151" s="2">
         <v>44417.45418981482</v>
@@ -5282,24 +5735,27 @@
         <v>0.491</v>
       </c>
       <c r="J151">
+        <v>6.245000000000004</v>
+      </c>
+      <c r="K151">
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:11">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>10658</v>
+        <v>9770</v>
       </c>
       <c r="E152">
-        <v>10693</v>
+        <v>9805</v>
       </c>
       <c r="F152" s="2">
         <v>44417.54202546296</v>
@@ -5314,24 +5770,27 @@
         <v>0.0930000000000013</v>
       </c>
       <c r="J152">
+        <v>0.4090000000000065</v>
+      </c>
+      <c r="K152">
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:11">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C153">
         <v>3</v>
       </c>
       <c r="D153">
-        <v>10782</v>
+        <v>9894</v>
       </c>
       <c r="E153">
-        <v>10841</v>
+        <v>9953</v>
       </c>
       <c r="F153" s="2">
         <v>44417.54346064815</v>
@@ -5346,24 +5805,27 @@
         <v>0.2999999999999996</v>
       </c>
       <c r="J153">
+        <v>3.245999999999991</v>
+      </c>
+      <c r="K153">
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:11">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C154">
         <v>4</v>
       </c>
       <c r="D154">
-        <v>14147</v>
+        <v>13259</v>
       </c>
       <c r="E154">
-        <v>14218</v>
+        <v>13330</v>
       </c>
       <c r="F154" s="2">
         <v>44417.5824074074</v>
@@ -5378,24 +5840,27 @@
         <v>0.296999999999997</v>
       </c>
       <c r="J154">
+        <v>5.364999999999984</v>
+      </c>
+      <c r="K154">
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:11">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C155">
         <v>5</v>
       </c>
       <c r="D155">
-        <v>14568</v>
+        <v>13680</v>
       </c>
       <c r="E155">
-        <v>14614</v>
+        <v>13726</v>
       </c>
       <c r="F155" s="2">
         <v>44417.58728009259</v>
@@ -5410,24 +5875,27 @@
         <v>0.2809999999999975</v>
       </c>
       <c r="J155">
+        <v>3.808999999999987</v>
+      </c>
+      <c r="K155">
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:11">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C156">
         <v>6</v>
       </c>
       <c r="D156">
-        <v>24322</v>
+        <v>23434</v>
       </c>
       <c r="E156">
-        <v>24379</v>
+        <v>23491</v>
       </c>
       <c r="F156" s="2">
         <v>44417.70017361111</v>
@@ -5442,24 +5910,27 @@
         <v>0.4049999999999998</v>
       </c>
       <c r="J156">
+        <v>2.52499999999999</v>
+      </c>
+      <c r="K156">
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:11">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C157">
         <v>7</v>
       </c>
       <c r="D157">
-        <v>26612</v>
+        <v>25724</v>
       </c>
       <c r="E157">
-        <v>26654</v>
+        <v>25766</v>
       </c>
       <c r="F157" s="2">
         <v>44417.72667824074</v>
@@ -5474,15 +5945,18 @@
         <v>0.1429999999999998</v>
       </c>
       <c r="J157">
+        <v>2.220999999999985</v>
+      </c>
+      <c r="K157">
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:11">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5506,15 +5980,18 @@
         <v>0.1889999999999994</v>
       </c>
       <c r="J158">
+        <v>2.143</v>
+      </c>
+      <c r="K158">
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:11">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -5538,15 +6015,18 @@
         <v>0.2739999999999995</v>
       </c>
       <c r="J159">
+        <v>8.781999999999998</v>
+      </c>
+      <c r="K159">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:11">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -5570,15 +6050,18 @@
         <v>0.4150000000000011</v>
       </c>
       <c r="J160">
+        <v>3.030999999999999</v>
+      </c>
+      <c r="K160">
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:11">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -5602,15 +6085,18 @@
         <v>0.03400000000000047</v>
       </c>
       <c r="J161">
+        <v>0.470000000000004</v>
+      </c>
+      <c r="K161">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:11">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C162">
         <v>4</v>
@@ -5634,15 +6120,18 @@
         <v>0.03000000000000025</v>
       </c>
       <c r="J162">
+        <v>0.3320000000000176</v>
+      </c>
+      <c r="K162">
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:11">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C163">
         <v>5</v>
@@ -5666,15 +6155,18 @@
         <v>0.8609999999999987</v>
       </c>
       <c r="J163">
+        <v>10.39700000000002</v>
+      </c>
+      <c r="K163">
         <v>155</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:11">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C164">
         <v>6</v>
@@ -5698,15 +6190,18 @@
         <v>0.07100000000000062</v>
       </c>
       <c r="J164">
+        <v>0.3030000000000035</v>
+      </c>
+      <c r="K164">
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:11">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -5730,15 +6225,18 @@
         <v>0.6159999999999974</v>
       </c>
       <c r="J165">
+        <v>7.600000000000021</v>
+      </c>
+      <c r="K165">
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:11">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C166">
         <v>8</v>
@@ -5762,6 +6260,9 @@
         <v>0.7400000000000038</v>
       </c>
       <c r="J166">
+        <v>7.413999999999925</v>
+      </c>
+      <c r="K166">
         <v>346</v>
       </c>
     </row>
